--- a/biology/Zoologie/Colostethus_ramirezi/Colostethus_ramirezi.xlsx
+++ b/biology/Zoologie/Colostethus_ramirezi/Colostethus_ramirezi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">"Colostethus" ramirezi
-"Colostethus" ramirezi est une espèce d'amphibiens de la famille des Dendrobatidae[1]..
-La position générique de cette espèce dans les Dendrobatidae est incertae sedis, elle est rapprochée de Colostethus, Hyloxalus ou Silverstoneia[2].
+"Colostethus" ramirezi est une espèce d'amphibiens de la famille des Dendrobatidae..
+La position générique de cette espèce dans les Dendrobatidae est incertae sedis, elle est rapprochée de Colostethus, Hyloxalus ou Silverstoneia.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du département d'Antioquia en Colombie. Elle se rencontre à Urrao entre 1 300 et 1 400 m d'altitude dans la cordillère Occidentale[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du département d'Antioquia en Colombie. Elle se rencontre à Urrao entre 1 300 et 1 400 m d'altitude dans la cordillère Occidentale.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fabio Ramirez[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Fabio Ramirez.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rivero &amp; Serna, 2000 "1995" : New species of Colostethus (Amphibia, Dendrobatidae) of the Department of Antioquia, Colombia, with the description of the tadpole of Colostethus fraterdanieli. Revista de Ecologia Latino Americana, vol. 2, no 1/3, p. 45-58 (texte intégral).</t>
         </is>
